--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -2,29 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CV_training\CV_training\CV_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sus85\OneDrive\Desktop\CV\cv_David\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4220"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Topic</t>
   </si>
@@ -118,17 +129,29 @@
   </si>
   <si>
     <t>estimated time</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>The book is a bit exausting, and its hard to remember all the principles from it. Maybe more summrized source will be better( presentation or something)</t>
+  </si>
+  <si>
+    <t>1.5cc + 1 dry+ 6(excersice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ps0,ps1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -439,20 +462,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +488,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,18 +502,21 @@
       </c>
       <c r="D2">
         <f>SUM(D3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -497,58 +526,79 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -558,74 +608,98 @@
       </c>
       <c r="D12">
         <f>SUM(D13:D20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -638,15 +712,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -654,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -662,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -675,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -683,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -691,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -699,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -712,12 +789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>5</v>
       </c>
